--- a/data/leo-tekken-8-frame-data.xlsx
+++ b/data/leo-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -556,15 +548,11 @@
       <c r="D4" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -590,15 +578,11 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -628,15 +612,11 @@
       <c r="D6" t="n">
         <v>18</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -662,15 +642,11 @@
       <c r="D7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+32 (+6)</t>
-        </is>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -696,15 +672,11 @@
       <c r="D8" t="n">
         <v>24</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -734,15 +706,11 @@
       <c r="D9" t="n">
         <v>16</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -768,15 +736,11 @@
       <c r="D10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -798,15 +762,11 @@
       <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -832,15 +792,11 @@
       <c r="D12" t="n">
         <v>22</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
@@ -866,15 +822,11 @@
       <c r="D13" t="n">
         <v>16</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
@@ -900,15 +852,11 @@
       <c r="D14" t="n">
         <v>14</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -930,15 +878,11 @@
       <c r="D15" t="n">
         <v>19</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -964,15 +908,11 @@
       <c r="D16" t="n">
         <v>23</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+13 (+4)</t>
-        </is>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -998,15 +938,11 @@
       <c r="D17" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E17" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1036,15 +972,11 @@
       <c r="D18" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1070,15 +1002,11 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1100,15 +1028,11 @@
       <c r="D20" t="n">
         <v>22</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1134,15 +1058,11 @@
       <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
+      <c r="E21" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-11</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1164,15 +1084,11 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1202,15 +1118,11 @@
       <c r="D23" t="n">
         <v>20</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+17 (+12)</t>
-        </is>
+      <c r="E23" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1236,15 +1148,11 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1274,15 +1182,11 @@
       <c r="D25" t="n">
         <v>19</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1308,15 +1212,11 @@
       <c r="D26" t="n">
         <v>14</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1338,15 +1238,11 @@
       <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
@@ -1372,15 +1268,11 @@
       <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E28" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1406,15 +1298,11 @@
       <c r="D29" t="n">
         <v>30</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+23</t>
-        </is>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1444,15 +1332,11 @@
       <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1474,15 +1358,11 @@
       <c r="D31" t="n">
         <v>20</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1524,15 +1404,11 @@
       <c r="D33" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1554,15 +1430,11 @@
       <c r="D34" t="n">
         <v>30</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+15 (+6)</t>
-        </is>
+      <c r="E34" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1588,15 +1460,11 @@
       <c r="D35" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E35" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1626,15 +1494,11 @@
       <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1656,15 +1520,11 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1690,15 +1550,11 @@
       <c r="D38" t="n">
         <v>17</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+72 (+56)</t>
-        </is>
+      <c r="E38" t="n">
+        <v>14</v>
+      </c>
+      <c r="F38" t="n">
+        <v>72</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1724,15 +1580,11 @@
       <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+41 (+31)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>41</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1754,15 +1606,11 @@
       <c r="D40" t="n">
         <v>21</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1788,15 +1636,11 @@
       <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E41" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1838,15 +1682,11 @@
       <c r="D43" t="n">
         <v>18</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1888,15 +1728,11 @@
       <c r="D45" t="n">
         <v>21</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1922,15 +1758,11 @@
       <c r="D46" t="n">
         <v>16</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E46" t="n">
+        <v>17</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1952,15 +1784,11 @@
       <c r="D47" t="n">
         <v>12</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E47" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-4</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1982,15 +1810,11 @@
       <c r="D48" t="n">
         <v>16</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -2012,15 +1836,11 @@
       <c r="D49" t="n">
         <v>26</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2046,15 +1866,11 @@
       <c r="D50" t="n">
         <v>10</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E50" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-5</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2076,15 +1892,11 @@
       <c r="D51" t="n">
         <v>21</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E51" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2106,15 +1918,11 @@
       <c r="D52" t="n">
         <v>17</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+22 (+17)</t>
-        </is>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -2140,15 +1948,11 @@
       <c r="D53" t="n">
         <v>16</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2170,15 +1974,11 @@
       <c r="D54" t="n">
         <v>24</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+12 (+3)</t>
-        </is>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2204,15 +2004,11 @@
       <c r="D55" t="n">
         <v>31</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+38 (+28)</t>
-        </is>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>38</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2234,15 +2030,11 @@
       <c r="D56" t="n">
         <v>20</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E56" t="n">
+        <v>31</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2272,15 +2064,11 @@
       <c r="D57" t="n">
         <v>25</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E57" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2306,15 +2094,11 @@
       <c r="D58" t="n">
         <v>13</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2336,15 +2120,11 @@
       <c r="D59" t="n">
         <v>18</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2374,15 +2154,11 @@
       <c r="D60" t="n">
         <v>15</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2404,15 +2180,11 @@
       <c r="D61" t="n">
         <v>21</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E61" t="n">
+        <v>12</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2438,15 +2210,11 @@
       <c r="D62" t="n">
         <v>17</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+6 (-3)</t>
-        </is>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2476,15 +2244,11 @@
       <c r="D63" t="n">
         <v>17</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+10 (+1)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2514,15 +2278,11 @@
       <c r="D64" t="n">
         <v>14</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2544,15 +2304,11 @@
       <c r="D65" t="n">
         <v>23</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2582,15 +2338,11 @@
       <c r="D66" t="n">
         <v>20</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+11 (+2)</t>
-        </is>
+      <c r="E66" t="n">
+        <v>9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
@@ -2616,15 +2368,11 @@
       <c r="D67" t="n">
         <v>22</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2650,15 +2398,11 @@
       <c r="D68" t="n">
         <v>20</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2684,15 +2428,11 @@
       <c r="D69" t="n">
         <v>17</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2722,15 +2462,11 @@
       <c r="D70" t="n">
         <v>17</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E70" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2756,15 +2492,11 @@
       <c r="D71" t="n">
         <v>14</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2786,15 +2518,11 @@
       <c r="D72" t="n">
         <v>26</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E72" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2816,15 +2544,11 @@
       <c r="D73" t="n">
         <v>19</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+28 (+18)</t>
-        </is>
+      <c r="E73" t="n">
+        <v>13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>28</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2846,15 +2570,11 @@
       <c r="D74" t="n">
         <v>12</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+20 (+11)</t>
-        </is>
+      <c r="E74" t="n">
+        <v>14</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2880,15 +2600,11 @@
       <c r="D75" t="n">
         <v>29</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
+      <c r="E75" t="n">
+        <v>14</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-12</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2918,15 +2634,11 @@
       <c r="D76" t="n">
         <v>16</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E76" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2952,15 +2664,11 @@
       <c r="D77" t="n">
         <v>20</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+31 (+13)</t>
-        </is>
+      <c r="E77" t="n">
+        <v>13</v>
+      </c>
+      <c r="F77" t="n">
+        <v>31</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2986,15 +2694,11 @@
       <c r="D78" t="n">
         <v>18</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E78" t="n">
+        <v>9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -3016,15 +2720,11 @@
       <c r="D79" t="n">
         <v>25</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="E79" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>21</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -3050,15 +2750,11 @@
       <c r="D80" t="n">
         <v>18</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E80" t="n">
+        <v>9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -3080,15 +2776,11 @@
       <c r="D81" t="n">
         <v>13</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+22</t>
-        </is>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>22</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3110,10 +2802,8 @@
       <c r="D82" t="n">
         <v>20</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
+      <c r="E82" t="n">
+        <v>13</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3132,15 +2822,11 @@
       <c r="D83" t="n">
         <v>24</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E83" t="n">
+        <v>26</v>
+      </c>
+      <c r="F83" t="n">
+        <v>19</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -3162,15 +2848,11 @@
       <c r="D84" t="n">
         <v>15</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+80</t>
-        </is>
+      <c r="E84" t="n">
+        <v>12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3196,15 +2878,11 @@
       <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3224,10 +2902,8 @@
         <v>18</v>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="E86" t="n">
+        <v>10</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -3244,15 +2920,11 @@
         <v>0</v>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3274,15 +2946,11 @@
       <c r="D88" t="n">
         <v>20</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3308,15 +2976,11 @@
       <c r="D89" t="n">
         <v>19</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E89" t="n">
+        <v>6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3347,10 +3011,8 @@
         <v>70</v>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+26 (-21)</t>
-        </is>
+      <c r="F90" t="n">
+        <v>26</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3372,15 +3034,11 @@
       <c r="D91" t="n">
         <v>24</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+6c</t>
-        </is>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3406,15 +3064,11 @@
       <c r="D92" t="n">
         <v>15</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+19 (+9)</t>
-        </is>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3444,15 +3098,11 @@
       <c r="D93" t="n">
         <v>13</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3474,15 +3124,11 @@
       <c r="D94" t="n">
         <v>19</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3512,15 +3158,11 @@
       <c r="D95" t="n">
         <v>20</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+37 (-21)</t>
-        </is>
+      <c r="E95" t="n">
+        <v>14</v>
+      </c>
+      <c r="F95" t="n">
+        <v>37</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -3546,15 +3188,11 @@
       <c r="D96" t="n">
         <v>18</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+18 (+11)</t>
-        </is>
+      <c r="E96" t="n">
+        <v>14</v>
+      </c>
+      <c r="F96" t="n">
+        <v>18</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3576,15 +3214,11 @@
       <c r="D97" t="n">
         <v>25</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E97" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3614,15 +3248,11 @@
       <c r="D98" t="n">
         <v>17</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+13 (+4)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3648,15 +3278,11 @@
       <c r="D99" t="n">
         <v>15</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
+      <c r="E99" t="n">
+        <v>13</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3678,18 +3304,1426 @@
       <c r="D100" t="n">
         <v>23</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+32 (+22)</t>
-        </is>
+      <c r="E100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F100" t="n">
+        <v>32</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>db+1+2,1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D101" t="n">
+        <v>17</v>
+      </c>
+      <c r="E101" t="n">
+        <v>12</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>db+2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>16</v>
+      </c>
+      <c r="D102" t="n">
+        <v>16</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>db+2,4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>40</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Heat Engager / Balcony Break / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>db+3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>23</v>
+      </c>
+      <c r="D104" t="n">
+        <v>31</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>38</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>db+4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>11</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>+33</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Can clean hit Staggers on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>db+4,1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>L,M</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>25</v>
+      </c>
+      <c r="E106" t="n">
+        <v>16</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Balcony Break / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>df+1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>13</v>
+      </c>
+      <c r="D107" t="n">
+        <v>13</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>df+1,2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D108" t="n">
+        <v>18</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>+34 (+26)</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Tornado / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>df+2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F109" t="n">
+        <v>28</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>df+2+3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>20</v>
+      </c>
+      <c r="D110" t="n">
+        <v>21</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>df+3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>22</v>
+      </c>
+      <c r="D111" t="n">
+        <v>17</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>6</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>+27 (-9)</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Homing / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>f+1+2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>24</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+      <c r="E112" t="n">
+        <v>14</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>+56</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>f+2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>14</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>f+2,2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>35</v>
+      </c>
+      <c r="D114" t="n">
+        <v>23</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>+25</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>f+2+3</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>21</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>f+2,4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>30</v>
+      </c>
+      <c r="D116" t="n">
+        <v>22</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Jail from 1st attack / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>f+3</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>23</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>+27</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>f+3+4</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>24</v>
+      </c>
+      <c r="D118" t="n">
+        <v>17</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>+71 (+55)</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Tornado / Balcony Break / Chip damage on block</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>f+4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>14</v>
+      </c>
+      <c r="D119" t="n">
+        <v>17</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>+19</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>f,F+2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>f,F+3</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>20</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>f,F+4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>12</v>
+      </c>
+      <c r="D122" t="n">
+        <v>19</v>
+      </c>
+      <c r="E122" t="n">
+        <v>13</v>
+      </c>
+      <c r="F122" t="n">
+        <v>28</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>f,F+4,3</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>35</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>14</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Jail from 1st attack / Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>f,F+4,3,4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>M,H,L</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>52</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>+30</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Can combo from 1st hit on wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>H.2+3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>M,M,H</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>16</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heat Smash / Balcony Break </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>H.KNK.2+3</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>L,M,M</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>70</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20</v>
+      </c>
+      <c r="E126" t="n">
+        <v>13</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Heat Smash / Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>KNK.1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>18</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>KNK.1+2</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>20</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Chip Damage on Block</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KNK.1,2</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1217</v>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>KNK.2</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>20</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KNK.3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>13</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>KNK.3+4</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>24</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24</v>
+      </c>
+      <c r="E132" t="n">
+        <v>26</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>KNK.3,4</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1318</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12</v>
+      </c>
+      <c r="F133" t="n">
+        <v>80</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Tornado</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>KNK.4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>18</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>KNK.4,DF</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>18</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>10</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>KNK.DF</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>R.df+1+2</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>55</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Rage Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>u+1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>17</v>
+      </c>
+      <c r="D138" t="n">
+        <v>19</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>+22 (+5)</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tornado / Balcony Break </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ub+1+2</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>M!</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>60</v>
+      </c>
+      <c r="D139" t="n">
+        <v>70</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>26</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ub+3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>26</v>
+      </c>
+      <c r="D140" t="n">
+        <v>24</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>+53</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ub+4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>15</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15</v>
+      </c>
+      <c r="E141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>+33 (+23)</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Balcony Break</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>uf+1</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>uf+1,1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>25</v>
+      </c>
+      <c r="D143" t="n">
+        <v>19</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>+22 (+5)</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tornado / Balcony Break </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>uf+1,2</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>33</v>
+      </c>
+      <c r="D144" t="n">
+        <v>20</v>
+      </c>
+      <c r="E144" t="n">
+        <v>14</v>
+      </c>
+      <c r="F144" t="n">
+        <v>37</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balcony Break / Combo from 1st hit </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>uf+2</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>15</v>
+      </c>
+      <c r="D145" t="n">
+        <v>18</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14</v>
+      </c>
+      <c r="F145" t="n">
+        <v>18</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>uf+2,1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>32</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>+32</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Combo from 1st hit</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>uf+3</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>21</v>
+      </c>
+      <c r="D147" t="n">
+        <v>17</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9</v>
+      </c>
+      <c r="F147" t="n">
+        <v>13</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balcony Break </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>uf+4</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15</v>
+      </c>
+      <c r="E148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F148" t="n">
+        <v>33</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>uf,n,4</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>20</v>
+      </c>
+      <c r="D149" t="n">
+        <v>23</v>
+      </c>
+      <c r="E149" t="n">
+        <v>13</v>
+      </c>
+      <c r="F149" t="n">
+        <v>32</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/leo-tekken-8-frame-data.xlsx
+++ b/data/leo-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -643,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
@@ -673,7 +673,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
@@ -737,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
@@ -763,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
@@ -793,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F12" t="n">
         <v>6</v>
@@ -823,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -879,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
@@ -909,7 +909,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
@@ -939,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F18" t="n">
         <v>6</v>
@@ -1003,7 +1003,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F20" t="n">
         <v>9</v>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F21" t="n">
         <v>-11</v>
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F22" t="n">
         <v>-3</v>
@@ -1119,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
@@ -1149,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F27" t="n">
         <v>7</v>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
@@ -1299,7 +1299,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F29" t="n">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1359,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
@@ -1405,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -1461,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F36" t="n">
         <v>9</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -1551,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F38" t="n">
         <v>72</v>
@@ -1581,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F39" t="n">
         <v>41</v>
@@ -1607,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="E40" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -1637,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1683,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F43" t="n">
         <v>5</v>
@@ -1729,7 +1729,7 @@
         <v>21</v>
       </c>
       <c r="E45" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F45" t="n">
         <v>9</v>
@@ -1759,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F46" t="n">
         <v>-6</v>
@@ -1785,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F47" t="n">
         <v>-4</v>
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>26</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F49" t="n">
         <v>-7</v>
@@ -1867,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>-5</v>
@@ -1893,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F51" t="n">
         <v>7</v>
@@ -1919,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F52" t="n">
         <v>22</v>
@@ -1949,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F53" t="n">
         <v>5</v>
@@ -1975,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F55" t="n">
         <v>38</v>
@@ -2031,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -2065,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
@@ -2095,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F58" t="n">
         <v>7</v>
@@ -2121,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -2155,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F60" t="n">
         <v>28</v>
@@ -2181,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F61" t="n">
         <v>5</v>
@@ -2211,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F62" t="n">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F63" t="n">
         <v>10</v>
@@ -2305,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F65" t="n">
         <v>8</v>
@@ -2339,7 +2339,7 @@
         <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F66" t="n">
         <v>11</v>
@@ -2369,7 +2369,7 @@
         <v>22</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F67" t="n">
         <v>7</v>
@@ -2463,7 +2463,7 @@
         <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F71" t="n">
         <v>8</v>
@@ -2519,7 +2519,7 @@
         <v>26</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
@@ -2545,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F73" t="n">
         <v>28</v>
@@ -2571,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F74" t="n">
         <v>20</v>
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F75" t="n">
         <v>-12</v>
@@ -2635,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F76" t="n">
         <v>5</v>
@@ -2665,7 +2665,7 @@
         <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F77" t="n">
         <v>31</v>
@@ -2695,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F78" t="n">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>25</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2751,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F80" t="n">
         <v>17</v>
@@ -2777,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F81" t="n">
         <v>22</v>
@@ -2803,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
         <v>24</v>
       </c>
       <c r="E83" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F83" t="n">
         <v>19</v>
@@ -2849,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F84" t="n">
         <v>80</v>
@@ -2879,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F85" t="n">
         <v>4</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2947,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
@@ -3065,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F92" t="n">
         <v>19</v>
@@ -3099,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F93" t="n">
         <v>6</v>
@@ -3125,7 +3125,7 @@
         <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F94" t="n">
         <v>2</v>
@@ -3159,7 +3159,7 @@
         <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F95" t="n">
         <v>37</v>
@@ -3189,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F96" t="n">
         <v>18</v>
@@ -3215,7 +3215,7 @@
         <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F97" t="n">
         <v>4</v>
@@ -3249,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F98" t="n">
         <v>13</v>
@@ -3279,7 +3279,7 @@
         <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F99" t="n">
         <v>33</v>
@@ -3305,1425 +3305,13 @@
         <v>23</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F100" t="n">
         <v>32</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>db+1+2,1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D101" t="n">
-        <v>17</v>
-      </c>
-      <c r="E101" t="n">
-        <v>12</v>
-      </c>
-      <c r="F101" t="n">
-        <v>22</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>db+2</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>16</v>
-      </c>
-      <c r="D102" t="n">
-        <v>16</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>db+2,4</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>40</v>
-      </c>
-      <c r="D103" t="n">
-        <v>24</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>12</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Heat Engager / Balcony Break / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>db+3</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>23</v>
-      </c>
-      <c r="D104" t="n">
-        <v>31</v>
-      </c>
-      <c r="E104" t="n">
-        <v>8</v>
-      </c>
-      <c r="F104" t="n">
-        <v>38</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>db+4</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>11</v>
-      </c>
-      <c r="D105" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" t="n">
-        <v>31</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>+33</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Can clean hit Staggers on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>db+4,1</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>L,M</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>1127</v>
-      </c>
-      <c r="D106" t="n">
-        <v>25</v>
-      </c>
-      <c r="E106" t="n">
-        <v>16</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Balcony Break / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>df+1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>13</v>
-      </c>
-      <c r="D107" t="n">
-        <v>13</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>df+1,2</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>1320</v>
-      </c>
-      <c r="D108" t="n">
-        <v>18</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>9</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>+34 (+26)</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Tornado / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>df+2</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>15</v>
-      </c>
-      <c r="D109" t="n">
-        <v>15</v>
-      </c>
-      <c r="E109" t="n">
-        <v>13</v>
-      </c>
-      <c r="F109" t="n">
-        <v>28</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>df+2+3</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>20</v>
-      </c>
-      <c r="D110" t="n">
-        <v>21</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>df+3</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>22</v>
-      </c>
-      <c r="D111" t="n">
-        <v>17</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9</v>
-      </c>
-      <c r="F111" t="n">
-        <v>6</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>+27 (-9)</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Homing / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>f+1+2</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>24</v>
-      </c>
-      <c r="D112" t="n">
-        <v>17</v>
-      </c>
-      <c r="E112" t="n">
-        <v>14</v>
-      </c>
-      <c r="F112" t="n">
-        <v>10</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>+56</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>f+2</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>14</v>
-      </c>
-      <c r="D113" t="n">
-        <v>14</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>6</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>f+2,2</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>35</v>
-      </c>
-      <c r="D114" t="n">
-        <v>23</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12</v>
-      </c>
-      <c r="F114" t="n">
-        <v>8</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>f+2+3</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>21</v>
-      </c>
-      <c r="D115" t="n">
-        <v>20</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9</v>
-      </c>
-      <c r="F115" t="n">
-        <v>11</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>f+2,4</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>H,H</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>30</v>
-      </c>
-      <c r="D116" t="n">
-        <v>22</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>7</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Jail from 1st attack / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>f+3</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>23</v>
-      </c>
-      <c r="D117" t="n">
-        <v>20</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>4</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>+27</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>f+3+4</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>24</v>
-      </c>
-      <c r="D118" t="n">
-        <v>17</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>8</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>+71 (+55)</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Tornado / Balcony Break / Chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>f+4</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>14</v>
-      </c>
-      <c r="D119" t="n">
-        <v>17</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>15</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>f,F+2</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>25</v>
-      </c>
-      <c r="D120" t="n">
-        <v>14</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9</v>
-      </c>
-      <c r="F120" t="n">
-        <v>8</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>f,F+3</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>20</v>
-      </c>
-      <c r="D121" t="n">
-        <v>26</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>f,F+4</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>12</v>
-      </c>
-      <c r="D122" t="n">
-        <v>19</v>
-      </c>
-      <c r="E122" t="n">
-        <v>13</v>
-      </c>
-      <c r="F122" t="n">
-        <v>28</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>f,F+4,3</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>35</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" t="n">
-        <v>14</v>
-      </c>
-      <c r="F123" t="n">
-        <v>20</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Jail from 1st attack / Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>f,F+4,3,4</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>M,H,L</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>52</v>
-      </c>
-      <c r="D124" t="n">
-        <v>29</v>
-      </c>
-      <c r="E124" t="n">
-        <v>14</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-12</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Can combo from 1st hit on wall</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>H.2+3</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>M,M,H</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>100</v>
-      </c>
-      <c r="D125" t="n">
-        <v>16</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heat Smash / Balcony Break </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>H.KNK.2+3</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>L,M,M</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>70</v>
-      </c>
-      <c r="D126" t="n">
-        <v>20</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13</v>
-      </c>
-      <c r="F126" t="n">
-        <v>31</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Heat Smash / Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>KNK.1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>12</v>
-      </c>
-      <c r="D127" t="n">
-        <v>18</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>KNK.1+2</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>20</v>
-      </c>
-      <c r="D128" t="n">
-        <v>25</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>21</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Chip Damage on Block</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>KNK.1,2</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1217</v>
-      </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>17</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>KNK.2</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>20</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9</v>
-      </c>
-      <c r="F130" t="n">
-        <v>22</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>KNK.3</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>13</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>KNK.3+4</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
-        <v>24</v>
-      </c>
-      <c r="D132" t="n">
-        <v>24</v>
-      </c>
-      <c r="E132" t="n">
-        <v>26</v>
-      </c>
-      <c r="F132" t="n">
-        <v>19</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>KNK.3,4</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1318</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12</v>
-      </c>
-      <c r="F133" t="n">
-        <v>80</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>KNK.4</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>18</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>KNK.4,DF</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>18</v>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="n">
-        <v>10</v>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>KNK.DF</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="n">
-        <v>5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>R.df+1+2</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>55</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Rage Art</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>u+1</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>17</v>
-      </c>
-      <c r="D138" t="n">
-        <v>19</v>
-      </c>
-      <c r="E138" t="n">
-        <v>6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>+22 (+5)</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tornado / Balcony Break </t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ub+1+2</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>M!</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>60</v>
-      </c>
-      <c r="D139" t="n">
-        <v>70</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="n">
-        <v>26</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>ub+3</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>26</v>
-      </c>
-      <c r="D140" t="n">
-        <v>24</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>+53</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>ub+4</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>15</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15</v>
-      </c>
-      <c r="E141" t="n">
-        <v>13</v>
-      </c>
-      <c r="F141" t="n">
-        <v>19</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>+33 (+23)</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>uf+1</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>6</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>uf+1,1</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>25</v>
-      </c>
-      <c r="D143" t="n">
-        <v>19</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>+22 (+5)</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tornado / Balcony Break </t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>uf+1,2</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>33</v>
-      </c>
-      <c r="D144" t="n">
-        <v>20</v>
-      </c>
-      <c r="E144" t="n">
-        <v>14</v>
-      </c>
-      <c r="F144" t="n">
-        <v>37</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balcony Break / Combo from 1st hit </t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>uf+2</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>15</v>
-      </c>
-      <c r="D145" t="n">
-        <v>18</v>
-      </c>
-      <c r="E145" t="n">
-        <v>14</v>
-      </c>
-      <c r="F145" t="n">
-        <v>18</v>
-      </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>uf+2,1</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>32</v>
-      </c>
-      <c r="D146" t="n">
-        <v>25</v>
-      </c>
-      <c r="E146" t="n">
-        <v>8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4</v>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>21</v>
-      </c>
-      <c r="D147" t="n">
-        <v>17</v>
-      </c>
-      <c r="E147" t="n">
-        <v>9</v>
-      </c>
-      <c r="F147" t="n">
-        <v>13</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balcony Break </t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>15</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15</v>
-      </c>
-      <c r="E148" t="n">
-        <v>13</v>
-      </c>
-      <c r="F148" t="n">
-        <v>33</v>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>uf,n,4</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>20</v>
-      </c>
-      <c r="D149" t="n">
-        <v>23</v>
-      </c>
-      <c r="E149" t="n">
-        <v>13</v>
-      </c>
-      <c r="F149" t="n">
-        <v>32</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
